--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nidhi\office\Projects\Testproject\Booking_CRUD_API_Testing\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nidhi\office\Projects\CRUD_BookingAPI_Testing_Using_BDD_Junit_RestAssured\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34617804-09AD-4180-99AE-552F9B266813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CDD434-1426-4B3C-A3A4-1F385F80C94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>firstName</t>
   </si>
@@ -78,7 +78,43 @@
     <t>UpdatedName</t>
   </si>
   <si>
-    <t>PratikUpdated</t>
+    <t>UpdatedlastName</t>
+  </si>
+  <si>
+    <t>UpdatedtotalPrice</t>
+  </si>
+  <si>
+    <t>UpdateddepositPaid</t>
+  </si>
+  <si>
+    <t>UpdatedadditionalNeeds</t>
+  </si>
+  <si>
+    <t>Updatedcheckin</t>
+  </si>
+  <si>
+    <t>Updatedcheckout</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>Shukla</t>
+  </si>
+  <si>
+    <t>Veg only Breakfast</t>
+  </si>
+  <si>
+    <t>Vyas</t>
+  </si>
+  <si>
+    <t>Pranidhya</t>
+  </si>
+  <si>
+    <t>PUpdatedName</t>
+  </si>
+  <si>
+    <t>PUpdatedlastName</t>
   </si>
 </sst>
 </file>
@@ -421,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,9 +468,11 @@
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -462,8 +500,32 @@
       <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -489,22 +551,46 @@
         <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="3">
+        <v>500</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
     </row>
   </sheetData>
